--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Mif-Cxcr4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Mif-Cxcr4.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>12.89761366666667</v>
+        <v>10.587229</v>
       </c>
       <c r="H2">
-        <v>38.692841</v>
+        <v>31.761687</v>
       </c>
       <c r="I2">
-        <v>0.1295258291743358</v>
+        <v>0.1340590927938227</v>
       </c>
       <c r="J2">
-        <v>0.1295258291743358</v>
+        <v>0.1340590927938227</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>161.9042856666667</v>
+        <v>30.52246933333333</v>
       </c>
       <c r="N2">
-        <v>485.712857</v>
+        <v>91.567408</v>
       </c>
       <c r="O2">
-        <v>0.3829374249648381</v>
+        <v>0.1058764512547768</v>
       </c>
       <c r="P2">
-        <v>0.3829374249648381</v>
+        <v>0.1058764512547769</v>
       </c>
       <c r="Q2">
-        <v>2088.178927506304</v>
+        <v>323.1483724774774</v>
       </c>
       <c r="R2">
-        <v>18793.61034755674</v>
+        <v>2908.335352297296</v>
       </c>
       <c r="S2">
-        <v>0.04960028749045565</v>
+        <v>0.01419370100344477</v>
       </c>
       <c r="T2">
-        <v>0.04960028749045566</v>
+        <v>0.01419370100344477</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>12.89761366666667</v>
+        <v>10.587229</v>
       </c>
       <c r="H3">
-        <v>38.692841</v>
+        <v>31.761687</v>
       </c>
       <c r="I3">
-        <v>0.1295258291743358</v>
+        <v>0.1340590927938227</v>
       </c>
       <c r="J3">
-        <v>0.1295258291743358</v>
+        <v>0.1340590927938227</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -623,22 +623,22 @@
         <v>0.9232319999999999</v>
       </c>
       <c r="O3">
-        <v>0.0007278787860563825</v>
+        <v>0.001067503492562006</v>
       </c>
       <c r="P3">
-        <v>0.0007278787860563827</v>
+        <v>0.001067503492562006</v>
       </c>
       <c r="Q3">
-        <v>3.969163220234666</v>
+        <v>3.258156201376</v>
       </c>
       <c r="R3">
-        <v>35.722468982112</v>
+        <v>29.323405812384</v>
       </c>
       <c r="S3">
-        <v>9.427910330236191E-05</v>
+        <v>0.0001431085497670997</v>
       </c>
       <c r="T3">
-        <v>9.427910330236194E-05</v>
+        <v>0.0001431085497670997</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>12.89761366666667</v>
+        <v>10.587229</v>
       </c>
       <c r="H4">
-        <v>38.692841</v>
+        <v>31.761687</v>
       </c>
       <c r="I4">
-        <v>0.1295258291743358</v>
+        <v>0.1340590927938227</v>
       </c>
       <c r="J4">
-        <v>0.1295258291743358</v>
+        <v>0.1340590927938227</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>35.56644499999999</v>
+        <v>47.57542166666667</v>
       </c>
       <c r="N4">
-        <v>106.699335</v>
+        <v>142.726265</v>
       </c>
       <c r="O4">
-        <v>0.08412206512861695</v>
+        <v>0.1650297935598315</v>
       </c>
       <c r="P4">
-        <v>0.08412206512861696</v>
+        <v>0.1650297935598315</v>
       </c>
       <c r="Q4">
-        <v>458.7222671067482</v>
+        <v>503.6918839565618</v>
       </c>
       <c r="R4">
-        <v>4128.500403960735</v>
+        <v>4533.226955609056</v>
       </c>
       <c r="S4">
-        <v>0.01089598023764159</v>
+        <v>0.02212374440858285</v>
       </c>
       <c r="T4">
-        <v>0.01089598023764159</v>
+        <v>0.02212374440858285</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>12.89761366666667</v>
+        <v>10.587229</v>
       </c>
       <c r="H5">
-        <v>38.692841</v>
+        <v>31.761687</v>
       </c>
       <c r="I5">
-        <v>0.1295258291743358</v>
+        <v>0.1340590927938227</v>
       </c>
       <c r="J5">
-        <v>0.1295258291743358</v>
+        <v>0.1340590927938227</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>225.0171966666667</v>
+        <v>209.8781993333333</v>
       </c>
       <c r="N5">
-        <v>675.05159</v>
+        <v>629.634598</v>
       </c>
       <c r="O5">
-        <v>0.5322126311204886</v>
+        <v>0.7280262516928295</v>
       </c>
       <c r="P5">
-        <v>0.5322126311204887</v>
+        <v>0.7280262516928296</v>
       </c>
       <c r="Q5">
-        <v>2902.184870963021</v>
+        <v>2222.028558449647</v>
       </c>
       <c r="R5">
-        <v>26119.66383866719</v>
+        <v>19998.25702604683</v>
       </c>
       <c r="S5">
-        <v>0.06893528234293619</v>
+        <v>0.09759853883202793</v>
       </c>
       <c r="T5">
-        <v>0.06893528234293621</v>
+        <v>0.09759853883202795</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>53.097706</v>
       </c>
       <c r="I6">
-        <v>0.1777466895466555</v>
+        <v>0.2241137347582675</v>
       </c>
       <c r="J6">
-        <v>0.1777466895466555</v>
+        <v>0.2241137347582675</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>161.9042856666667</v>
+        <v>30.52246933333333</v>
       </c>
       <c r="N6">
-        <v>485.712857</v>
+        <v>91.567408</v>
       </c>
       <c r="O6">
-        <v>0.3829374249648381</v>
+        <v>0.1058764512547768</v>
       </c>
       <c r="P6">
-        <v>0.3829374249648381</v>
+        <v>0.1058764512547769</v>
       </c>
       <c r="Q6">
-        <v>2865.582053489561</v>
+        <v>540.2243676851165</v>
       </c>
       <c r="R6">
-        <v>25790.23848140605</v>
+        <v>4862.019309166049</v>
       </c>
       <c r="S6">
-        <v>0.06806585959102077</v>
+        <v>0.0237283669136597</v>
       </c>
       <c r="T6">
-        <v>0.06806585959102078</v>
+        <v>0.0237283669136597</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>53.097706</v>
       </c>
       <c r="I7">
-        <v>0.1777466895466555</v>
+        <v>0.2241137347582675</v>
       </c>
       <c r="J7">
-        <v>0.1777466895466555</v>
+        <v>0.2241137347582675</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -871,10 +871,10 @@
         <v>0.9232319999999999</v>
       </c>
       <c r="O7">
-        <v>0.0007278787860563825</v>
+        <v>0.001067503492562006</v>
       </c>
       <c r="P7">
-        <v>0.0007278787860563827</v>
+        <v>0.001067503492562006</v>
       </c>
       <c r="Q7">
         <v>5.446833478421333</v>
@@ -883,10 +883,10 @@
         <v>49.021501305792</v>
       </c>
       <c r="S7">
-        <v>0.0001293780446127603</v>
+        <v>0.0002392421945855655</v>
       </c>
       <c r="T7">
-        <v>0.0001293780446127604</v>
+        <v>0.0002392421945855656</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>53.097706</v>
       </c>
       <c r="I8">
-        <v>0.1777466895466555</v>
+        <v>0.2241137347582675</v>
       </c>
       <c r="J8">
-        <v>0.1777466895466555</v>
+        <v>0.2241137347582675</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>35.56644499999999</v>
+        <v>47.57542166666667</v>
       </c>
       <c r="N8">
-        <v>106.699335</v>
+        <v>142.726265</v>
       </c>
       <c r="O8">
-        <v>0.08412206512861695</v>
+        <v>0.1650297935598315</v>
       </c>
       <c r="P8">
-        <v>0.08412206512861696</v>
+        <v>0.1650297935598315</v>
       </c>
       <c r="Q8">
-        <v>629.4988800250566</v>
+        <v>842.0485841608989</v>
       </c>
       <c r="R8">
-        <v>5665.48992022551</v>
+        <v>7578.437257448091</v>
       </c>
       <c r="S8">
-        <v>0.01495241859443981</v>
+        <v>0.03698544338107973</v>
       </c>
       <c r="T8">
-        <v>0.01495241859443982</v>
+        <v>0.03698544338107973</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>53.097706</v>
       </c>
       <c r="I9">
-        <v>0.1777466895466555</v>
+        <v>0.2241137347582675</v>
       </c>
       <c r="J9">
-        <v>0.1777466895466555</v>
+        <v>0.2241137347582675</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>225.0171966666667</v>
+        <v>209.8781993333333</v>
       </c>
       <c r="N9">
-        <v>675.05159</v>
+        <v>629.634598</v>
       </c>
       <c r="O9">
-        <v>0.5322126311204886</v>
+        <v>0.7280262516928295</v>
       </c>
       <c r="P9">
-        <v>0.5322126311204887</v>
+        <v>0.7280262516928296</v>
       </c>
       <c r="Q9">
-        <v>3982.632317850283</v>
+        <v>3714.68364133691</v>
       </c>
       <c r="R9">
-        <v>35843.69086065255</v>
+        <v>33432.15277203219</v>
       </c>
       <c r="S9">
-        <v>0.09459903331658219</v>
+        <v>0.1631606822689425</v>
       </c>
       <c r="T9">
-        <v>0.0945990333165822</v>
+        <v>0.1631606822689425</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>38.809555</v>
+        <v>34.22308866666667</v>
       </c>
       <c r="H10">
-        <v>116.428665</v>
+        <v>102.669266</v>
       </c>
       <c r="I10">
-        <v>0.3897496018394196</v>
+        <v>0.43334438305395</v>
       </c>
       <c r="J10">
-        <v>0.3897496018394196</v>
+        <v>0.43334438305395</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>161.9042856666667</v>
+        <v>30.52246933333333</v>
       </c>
       <c r="N10">
-        <v>485.712857</v>
+        <v>91.567408</v>
       </c>
       <c r="O10">
-        <v>0.3829374249648381</v>
+        <v>0.1058764512547768</v>
       </c>
       <c r="P10">
-        <v>0.3829374249648381</v>
+        <v>0.1058764512547769</v>
       </c>
       <c r="Q10">
-        <v>6283.433279316213</v>
+        <v>1044.573174320281</v>
       </c>
       <c r="R10">
-        <v>56550.89951384591</v>
+        <v>9401.158568882529</v>
       </c>
       <c r="S10">
-        <v>0.1492497089094582</v>
+        <v>0.04588096544894288</v>
       </c>
       <c r="T10">
-        <v>0.1492497089094583</v>
+        <v>0.04588096544894289</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>38.809555</v>
+        <v>34.22308866666667</v>
       </c>
       <c r="H11">
-        <v>116.428665</v>
+        <v>102.669266</v>
       </c>
       <c r="I11">
-        <v>0.3897496018394196</v>
+        <v>0.43334438305395</v>
       </c>
       <c r="J11">
-        <v>0.3897496018394196</v>
+        <v>0.43334438305395</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,22 +1119,22 @@
         <v>0.9232319999999999</v>
       </c>
       <c r="O11">
-        <v>0.0007278787860563825</v>
+        <v>0.001067503492562006</v>
       </c>
       <c r="P11">
-        <v>0.0007278787860563827</v>
+        <v>0.001067503492562006</v>
       </c>
       <c r="Q11">
-        <v>11.94340769392</v>
+        <v>10.53195019863467</v>
       </c>
       <c r="R11">
-        <v>107.49066924528</v>
+        <v>94.787551787712</v>
       </c>
       <c r="S11">
-        <v>0.0002836904670528352</v>
+        <v>0.0004625966423922191</v>
       </c>
       <c r="T11">
-        <v>0.0002836904670528352</v>
+        <v>0.0004625966423922192</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>38.809555</v>
+        <v>34.22308866666667</v>
       </c>
       <c r="H12">
-        <v>116.428665</v>
+        <v>102.669266</v>
       </c>
       <c r="I12">
-        <v>0.3897496018394196</v>
+        <v>0.43334438305395</v>
       </c>
       <c r="J12">
-        <v>0.3897496018394196</v>
+        <v>0.43334438305395</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>35.56644499999999</v>
+        <v>47.57542166666667</v>
       </c>
       <c r="N12">
-        <v>106.699335</v>
+        <v>142.726265</v>
       </c>
       <c r="O12">
-        <v>0.08412206512861695</v>
+        <v>0.1650297935598315</v>
       </c>
       <c r="P12">
-        <v>0.08412206512861696</v>
+        <v>0.1650297935598315</v>
       </c>
       <c r="Q12">
-        <v>1380.317903381975</v>
+        <v>1628.177874052388</v>
       </c>
       <c r="R12">
-        <v>12422.86113043778</v>
+        <v>14653.60086647149</v>
       </c>
       <c r="S12">
-        <v>0.03278654138978818</v>
+        <v>0.07151473407570591</v>
       </c>
       <c r="T12">
-        <v>0.03278654138978818</v>
+        <v>0.07151473407570591</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>38.809555</v>
+        <v>34.22308866666667</v>
       </c>
       <c r="H13">
-        <v>116.428665</v>
+        <v>102.669266</v>
       </c>
       <c r="I13">
-        <v>0.3897496018394196</v>
+        <v>0.43334438305395</v>
       </c>
       <c r="J13">
-        <v>0.3897496018394196</v>
+        <v>0.43334438305395</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>225.0171966666667</v>
+        <v>209.8781993333333</v>
       </c>
       <c r="N13">
-        <v>675.05159</v>
+        <v>629.634598</v>
       </c>
       <c r="O13">
-        <v>0.5322126311204886</v>
+        <v>0.7280262516928295</v>
       </c>
       <c r="P13">
-        <v>0.5322126311204887</v>
+        <v>0.7280262516928296</v>
       </c>
       <c r="Q13">
-        <v>8732.817269980818</v>
+        <v>7182.680224985008</v>
       </c>
       <c r="R13">
-        <v>78595.35542982737</v>
+        <v>64644.12202486507</v>
       </c>
       <c r="S13">
-        <v>0.2074296610731203</v>
+        <v>0.3154860868869089</v>
       </c>
       <c r="T13">
-        <v>0.2074296610731204</v>
+        <v>0.3154860868869089</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>30.16920766666667</v>
+        <v>16.46479166666667</v>
       </c>
       <c r="H14">
-        <v>90.507623</v>
+        <v>49.394375</v>
       </c>
       <c r="I14">
-        <v>0.302977879439589</v>
+        <v>0.2084827893939599</v>
       </c>
       <c r="J14">
-        <v>0.3029778794395889</v>
+        <v>0.2084827893939599</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>161.9042856666667</v>
+        <v>30.52246933333333</v>
       </c>
       <c r="N14">
-        <v>485.712857</v>
+        <v>91.567408</v>
       </c>
       <c r="O14">
-        <v>0.3829374249648381</v>
+        <v>0.1058764512547768</v>
       </c>
       <c r="P14">
-        <v>0.3829374249648381</v>
+        <v>0.1058764512547769</v>
       </c>
       <c r="Q14">
-        <v>4884.52401640099</v>
+        <v>502.5460987255556</v>
       </c>
       <c r="R14">
-        <v>43960.71614760891</v>
+        <v>4522.91488853</v>
       </c>
       <c r="S14">
-        <v>0.1160215689739034</v>
+        <v>0.0220734178887295</v>
       </c>
       <c r="T14">
-        <v>0.1160215689739034</v>
+        <v>0.0220734178887295</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>30.16920766666667</v>
+        <v>16.46479166666667</v>
       </c>
       <c r="H15">
-        <v>90.507623</v>
+        <v>49.394375</v>
       </c>
       <c r="I15">
-        <v>0.302977879439589</v>
+        <v>0.2084827893939599</v>
       </c>
       <c r="J15">
-        <v>0.3029778794395889</v>
+        <v>0.2084827893939599</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1367,22 +1367,22 @@
         <v>0.9232319999999999</v>
       </c>
       <c r="O15">
-        <v>0.0007278787860563825</v>
+        <v>0.001067503492562006</v>
       </c>
       <c r="P15">
-        <v>0.0007278787860563827</v>
+        <v>0.001067503492562006</v>
       </c>
       <c r="Q15">
-        <v>9.284392644170666</v>
+        <v>5.066940846666666</v>
       </c>
       <c r="R15">
-        <v>83.55953379753599</v>
+        <v>45.60246761999999</v>
       </c>
       <c r="S15">
-        <v>0.000220531171088425</v>
+        <v>0.0002225561058171212</v>
       </c>
       <c r="T15">
-        <v>0.0002205311710884251</v>
+        <v>0.0002225561058171213</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>30.16920766666667</v>
+        <v>16.46479166666667</v>
       </c>
       <c r="H16">
-        <v>90.507623</v>
+        <v>49.394375</v>
       </c>
       <c r="I16">
-        <v>0.302977879439589</v>
+        <v>0.2084827893939599</v>
       </c>
       <c r="J16">
-        <v>0.3029778794395889</v>
+        <v>0.2084827893939599</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>35.56644499999999</v>
+        <v>47.57542166666667</v>
       </c>
       <c r="N16">
-        <v>106.699335</v>
+        <v>142.726265</v>
       </c>
       <c r="O16">
-        <v>0.08412206512861695</v>
+        <v>0.1650297935598315</v>
       </c>
       <c r="P16">
-        <v>0.08412206512861696</v>
+        <v>0.1650297935598315</v>
       </c>
       <c r="Q16">
-        <v>1073.011465170078</v>
+        <v>783.3194061954862</v>
       </c>
       <c r="R16">
-        <v>9657.103186530703</v>
+        <v>7049.874655759375</v>
       </c>
       <c r="S16">
-        <v>0.02548712490674736</v>
+        <v>0.03440587169446303</v>
       </c>
       <c r="T16">
-        <v>0.02548712490674736</v>
+        <v>0.03440587169446303</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>30.16920766666667</v>
+        <v>16.46479166666667</v>
       </c>
       <c r="H17">
-        <v>90.507623</v>
+        <v>49.394375</v>
       </c>
       <c r="I17">
-        <v>0.302977879439589</v>
+        <v>0.2084827893939599</v>
       </c>
       <c r="J17">
-        <v>0.3029778794395889</v>
+        <v>0.2084827893939599</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>225.0171966666667</v>
+        <v>209.8781993333333</v>
       </c>
       <c r="N17">
-        <v>675.05159</v>
+        <v>629.634598</v>
       </c>
       <c r="O17">
-        <v>0.5322126311204886</v>
+        <v>0.7280262516928295</v>
       </c>
       <c r="P17">
-        <v>0.5322126311204887</v>
+        <v>0.7280262516928296</v>
       </c>
       <c r="Q17">
-        <v>6788.590534807841</v>
+        <v>3455.600827398472</v>
       </c>
       <c r="R17">
-        <v>61097.31481327057</v>
+        <v>31100.40744658625</v>
       </c>
       <c r="S17">
-        <v>0.1612486543878498</v>
+        <v>0.1517809437049502</v>
       </c>
       <c r="T17">
-        <v>0.1612486543878498</v>
+        <v>0.1517809437049502</v>
       </c>
     </row>
   </sheetData>
